--- a/DateBase/orders/International Ever Green_2025-10-29.xlsx
+++ b/DateBase/orders/International Ever Green_2025-10-29.xlsx
@@ -612,6 +612,9 @@
       <c r="C21" t="str">
         <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -673,7 +676,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0242415828101211520554050205050100</v>
+        <v>0242415828101211520554050205050101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-10-29.xlsx
+++ b/DateBase/orders/International Ever Green_2025-10-29.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -613,12 +613,181 @@
         <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>6</v>
+      </c>
+      <c r="C22" t="str">
+        <v>633_干花安娜深红_undefined_undefined_1stem</v>
+      </c>
+      <c r="F22" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
         <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2</v>
+      </c>
+      <c r="C28" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>625_多丁紫蝴蝶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F36" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>3</v>
+      </c>
+      <c r="C39" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F39" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>647_海棠果红_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -676,7 +845,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0242415828101211520554050205050101</v>
+        <v>02424158281012115205540502050501010156121014106165105105730101035250</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-10-29.xlsx
+++ b/DateBase/orders/International Ever Green_2025-10-29.xlsx
@@ -784,6 +784,9 @@
       <c r="C41" t="str">
         <v>647_海棠果红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -845,7 +848,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02424158281012115205540502050501010156121014106165105105730101035250</v>
+        <v>02424158281012115205540502050501010156121014106165105105730101035255</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-10-29.xlsx
+++ b/DateBase/orders/International Ever Green_2025-10-29.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -788,9 +788,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>4</v>
+      </c>
+      <c r="C43" t="str">
+        <v>663_大丽花 乌梅子酱_undefined_undefined_5stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>1</v>
+      </c>
+      <c r="C45" t="str">
+        <v>721_银扇干花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>664_大丽花 琳达宝贝_undefined_undefined_5stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2</v>
+      </c>
+      <c r="C47" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>118_绣球老绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+      </c>
+      <c r="F48" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>592_进口春兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>540_糖棉_gomphocarpus fruticosus_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>816_山里红_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -848,7 +931,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02424158281012115205540502050501010156121014106165105105730101035255</v>
+        <v>02424158281012115205540502050501010156121014106165105105730101035255555101010201000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-10-29.xlsx
+++ b/DateBase/orders/International Ever Green_2025-10-29.xlsx
@@ -870,6 +870,9 @@
       <c r="C51" t="str">
         <v>816_山里红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -931,7 +934,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02424158281012115205540502050501010156121014106165105105730101035255555101010201000</v>
+        <v>02424158281012115205540502050501010156121014106165105105730101035255555101010201001</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-10-29.xlsx
+++ b/DateBase/orders/International Ever Green_2025-10-29.xlsx
@@ -871,7 +871,7 @@
         <v>816_山里红_undefined_undefined_1bunch</v>
       </c>
       <c r="F51" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +934,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02424158281012115205540502050501010156121014106165105105730101035255555101010201001</v>
+        <v>024241582810121152055405020505010101561210141061651051057301010352555551010102010010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2025-10-29.xlsx
+++ b/DateBase/orders/International Ever Green_2025-10-29.xlsx
@@ -865,6 +865,9 @@
       <c r="C50" t="str">
         <v>540_糖棉_gomphocarpus fruticosus_undefined_1bunch</v>
       </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="C51" t="str">
@@ -934,7 +937,10 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>024241582810121152055405020505010101561210141061651051057301010352555551010102010010</v>
+        <v>024241582810121152055405020505010101561210141061651051057301010352555551010102010510</v>
+      </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
       </c>
     </row>
   </sheetData>
